--- a/result/RQ1-category-result.xlsx
+++ b/result/RQ1-category-result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD1C7A6-5C5E-4EF9-B8FE-B60EB3D8D243}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79CA2BF-AC56-49FE-BF38-D2822B8A83FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,14 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>lower-MESIA comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>higher-MESIA comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
   <si>
     <t>what</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +43,14 @@
   </si>
   <si>
     <t>others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smaller-MESIA Comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Larger-MESIA Comments</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,10 +174,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>lower-MESIA comments</c:v>
+                  <c:v>Smaller-MESIA Comments</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>higher-MESIA comments</c:v>
+                  <c:v>Larger-MESIA Comments</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -233,10 +233,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>lower-MESIA comments</c:v>
+                  <c:v>Smaller-MESIA Comments</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>higher-MESIA comments</c:v>
+                  <c:v>Larger-MESIA Comments</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -292,10 +292,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>lower-MESIA comments</c:v>
+                  <c:v>Smaller-MESIA Comments</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>higher-MESIA comments</c:v>
+                  <c:v>Larger-MESIA Comments</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -351,10 +351,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>lower-MESIA comments</c:v>
+                  <c:v>Smaller-MESIA Comments</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>higher-MESIA comments</c:v>
+                  <c:v>Larger-MESIA Comments</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -410,10 +410,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>lower-MESIA comments</c:v>
+                  <c:v>Smaller-MESIA Comments</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>higher-MESIA comments</c:v>
+                  <c:v>Larger-MESIA Comments</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -469,10 +469,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>lower-MESIA comments</c:v>
+                  <c:v>Smaller-MESIA Comments</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>higher-MESIA comments</c:v>
+                  <c:v>Larger-MESIA Comments</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1546,7 +1546,7 @@
   <dimension ref="A18:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1556,27 +1556,27 @@
   <sheetData>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>4</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>97</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>32</v>
